--- a/ISRaD_data_files/Qin_2023.xlsx
+++ b/ISRaD_data_files/Qin_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C423DDF7-1DCD-4F54-9F7F-4C69062650B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E66340-397E-4EC8-A449-7FBEB77B720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1017">
   <si>
     <t>curator_name</t>
   </si>
@@ -4155,6 +4155,9 @@
   </si>
   <si>
     <t>There were several issues regarding this input: First, the authors describe incremental cutting of the 12 m deep soil core by 40 cm giving 30 individual samples, however they use this scheme only for the other parameters measured while the 14C is provided for only 5 points distributed unevenly across the core without any additional description regarding pooling or choice of ​s​ubset ​p​ositions. I got to understand that they measured 14C in only a subset of 5 layers and was able to derive which layers thanks to PlotDigitizer. Second, the data are reported only in graphs. Third, 14C data are reported in 14C age. I reached out to the corresponding author twice but did not hear back. So, I used PlotDigitizer to extract both the depths and the 14C ages, then I used the formula: age = -8033 * ln (Fm) to convert 14C age to FM. The 14C was determined for four parameters at each of the 5 depths: SOC, SIC, CO2, DOC. Importantly, they used liquid scintillation to determine 14C.</t>
+  </si>
+  <si>
+    <t>incubated intact field-moist soil columns that were stored in anaerobic glove boxes</t>
   </si>
 </sst>
 </file>
@@ -7571,9 +7574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8872,9 +8873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ1498"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17721,9 +17720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DJ962"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20904,9 +20901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21593,9 +21588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BZ1004"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K23"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28254,10 +28247,10 @@
   <dimension ref="A1:AG200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R40" sqref="R40"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28281,7 +28274,8 @@
     <col min="19" max="19" width="16.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.1796875" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.453125" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.81640625" style="3"/>
+    <col min="22" max="22" width="15.81640625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="18" customFormat="1" ht="50" x14ac:dyDescent="0.35">
@@ -28569,6 +28563,9 @@
       <c r="G4" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>282</v>
       </c>
@@ -28580,6 +28577,12 @@
       </c>
       <c r="Q4" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="V4" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE4" s="3">
         <v>0.96075136000000005</v>
@@ -28605,6 +28608,9 @@
       <c r="G5" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>282</v>
       </c>
@@ -28616,6 +28622,12 @@
       </c>
       <c r="Q5" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="V5" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE5" s="3">
         <v>0.89982149</v>
@@ -28641,6 +28653,9 @@
       <c r="G6" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M6" s="3" t="s">
         <v>282</v>
       </c>
@@ -28652,6 +28667,12 @@
       </c>
       <c r="Q6" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="V6" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE6" s="3">
         <v>0.46392576200000002</v>
@@ -28677,6 +28698,9 @@
       <c r="G7" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M7" s="3" t="s">
         <v>282</v>
       </c>
@@ -28688,6 +28712,12 @@
       </c>
       <c r="Q7" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="V7" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE7" s="3">
         <v>0.34420868500000001</v>
@@ -28713,6 +28743,9 @@
       <c r="G8" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>282</v>
       </c>
@@ -28724,6 +28757,12 @@
       </c>
       <c r="Q8" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V8" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE8" s="3">
         <v>0.306362686</v>
@@ -28749,6 +28788,9 @@
       <c r="G9" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>282</v>
       </c>
@@ -28760,6 +28802,12 @@
       </c>
       <c r="Q9" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="V9" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE9" s="3">
         <v>0.98913932999999998</v>
@@ -28785,6 +28833,9 @@
       <c r="G10" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>282</v>
       </c>
@@ -28796,6 +28847,12 @@
       </c>
       <c r="Q10" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="V10" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE10" s="3">
         <v>0.91968968200000001</v>
@@ -28821,6 +28878,9 @@
       <c r="G11" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M11" s="3" t="s">
         <v>282</v>
       </c>
@@ -28832,6 +28892,12 @@
       </c>
       <c r="Q11" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="V11" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE11" s="3">
         <v>0.481123615</v>
@@ -28857,6 +28923,9 @@
       <c r="G12" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M12" s="3" t="s">
         <v>282</v>
       </c>
@@ -28868,6 +28937,12 @@
       </c>
       <c r="Q12" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="V12" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE12" s="3">
         <v>0.36220399800000003</v>
@@ -28893,6 +28968,9 @@
       <c r="G13" s="3" t="s">
         <v>725</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="M13" s="3" t="s">
         <v>282</v>
       </c>
@@ -28904,6 +28982,12 @@
       </c>
       <c r="Q13" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="V13" s="174" t="s">
+        <v>286</v>
       </c>
       <c r="AE13" s="3">
         <v>0.32710750999999999</v>
